--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1971539.261539559</v>
+        <v>1968995.452032475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>233.6084191422256</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>259.6326967715753</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>114.9787858182583</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>37.34724819842859</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>169.6045484353427</v>
+        <v>60.96760033386605</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>232.01072298284</v>
+        <v>59.80127191868297</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108.0859450659288</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.856330159867</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>53.36410705248033</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8.16891084546346</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824948</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425464991</v>
+        <v>65.76608425465074</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>184.1901997098308</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>197.824401034004</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908596</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162927</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115216</v>
+        <v>20.24979976115256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>121.9959322691657</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430993</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640951</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>20.53952247906356</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>52.54490042790835</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856639</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>156.3923706291105</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>206.5509998577724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531935</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634795</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986295</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060203</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217875</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.63412424768026</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.13627195705715</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890385</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460218</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>92.41552299048858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>26.13627195705355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.52079624060563</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="C2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="D2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="E2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="F2" t="n">
-        <v>373.5365434194364</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>403.9460998429523</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946896</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>686.1106626298176</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>686.1106626298176</v>
       </c>
       <c r="V2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="W2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="X2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4820441686398</v>
+        <v>423.8554133656002</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K3" t="n">
-        <v>121.653531464967</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252636</v>
+        <v>338.8740072302315</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267554</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.5286634293604</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560903</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098649</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413025</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>481.274297278116</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534679</v>
+        <v>481.274297278116</v>
       </c>
       <c r="W3" t="n">
-        <v>659.7474918534679</v>
+        <v>227.0369405499144</v>
       </c>
       <c r="X3" t="n">
-        <v>543.6073041582574</v>
+        <v>227.0369405499144</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.8470053933036</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.0607779425552</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.09711040012051</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551014</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.736887837534</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227051</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075547</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407082</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512196</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512196</v>
       </c>
       <c r="U4" t="n">
-        <v>754.7452661484421</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>500.0607779425552</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0607779425552</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>500.0607779425552</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.0607779425552</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
+        <v>307.3840804899464</v>
+      </c>
+      <c r="F5" t="n">
         <v>300.4385797407429</v>
       </c>
-      <c r="F5" t="n">
-        <v>34.06092317356495</v>
-      </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="W5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="X5" t="n">
-        <v>566.8162363079209</v>
+        <v>840.1393936243023</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>444.9687112326096</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>270.5156819514826</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>808.3837902496282</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V6" t="n">
-        <v>808.3837902496282</v>
+        <v>474.2580350095594</v>
       </c>
       <c r="W6" t="n">
-        <v>554.1464335214266</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>554.1464335214266</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>554.1464335214266</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>780.2264383424191</v>
+        <v>225.116888249305</v>
       </c>
       <c r="C7" t="n">
-        <v>780.2264383424191</v>
+        <v>225.116888249305</v>
       </c>
       <c r="D7" t="n">
-        <v>630.1097989300833</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="E7" t="n">
-        <v>482.1967053476902</v>
+        <v>75.00024883696932</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551009</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1046.604094909597</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1046.604094909597</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1046.604094909597</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1046.604094909597</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1046.604094909597</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>780.2264383424191</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>780.2264383424191</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="Y7" t="n">
-        <v>780.2264383424191</v>
+        <v>225.116888249305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.309834245809</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
         <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986465</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004023</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107947</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685596</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467184</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760745</v>
+        <v>442.1757437607396</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045974</v>
+        <v>795.1862829045888</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995233</v>
+        <v>1219.647962995221</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209593</v>
+        <v>1655.591685209577</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940607</v>
+        <v>2053.905718940588</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550211</v>
+        <v>2359.356530550188</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661178</v>
+        <v>2540.564622661153</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342798</v>
+        <v>2560.562760342772</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342798</v>
+        <v>2435.830015762125</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342798</v>
+        <v>2227.077931858398</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342798</v>
+        <v>2227.077931858398</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999227</v>
+        <v>2227.077931858398</v>
       </c>
       <c r="W8" t="n">
-        <v>2043.44916622162</v>
+        <v>1874.309276588284</v>
       </c>
       <c r="X8" t="n">
-        <v>2043.44916622162</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1653.309834245809</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010927</v>
+        <v>929.5097208010668</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199657</v>
+        <v>755.0566915199398</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587145</v>
+        <v>606.1222818586886</v>
       </c>
       <c r="E9" t="n">
-        <v>446.884826853259</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.350268880144</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763322</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993894</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685596</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507243</v>
+        <v>113.488757963718</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442774</v>
+        <v>559.9063389572692</v>
       </c>
       <c r="L9" t="n">
-        <v>979.27244737776</v>
+        <v>854.4423223907494</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852063</v>
+        <v>1217.508790865049</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324634</v>
+        <v>1851.248074049885</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312025</v>
+        <v>2183.134884037273</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789052</v>
+        <v>2430.170242466897</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342798</v>
+        <v>2545.387641020641</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342798</v>
+        <v>2560.562760342772</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251713</v>
+        <v>2424.826280251687</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685362</v>
+        <v>2230.816477685336</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751592</v>
+        <v>2002.726321751566</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519849</v>
+        <v>1767.574213519823</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791648</v>
+        <v>1513.336856791622</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586115</v>
+        <v>1305.485356586089</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821161</v>
+        <v>1097.725057821135</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>280.3144693606591</v>
+        <v>367.0373856326727</v>
       </c>
       <c r="C10" t="n">
-        <v>280.3144693606591</v>
+        <v>198.1012027047658</v>
       </c>
       <c r="D10" t="n">
-        <v>280.3144693606591</v>
+        <v>198.1012027047658</v>
       </c>
       <c r="E10" t="n">
-        <v>280.3144693606591</v>
+        <v>198.1012027047658</v>
       </c>
       <c r="F10" t="n">
-        <v>280.3144693606591</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="G10" t="n">
-        <v>280.3144693606591</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685596</v>
+        <v>51.21125520685544</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380213</v>
+        <v>76.63468308380094</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567658</v>
+        <v>248.2500215676557</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336894</v>
+        <v>523.3850043368902</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904064</v>
+        <v>823.8653899904011</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101616</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931095</v>
+        <v>1382.582027931087</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616505</v>
+        <v>1581.490387616496</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477368</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412625</v>
+        <v>1533.156055412616</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634459</v>
+        <v>1336.515802634449</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108865</v>
+        <v>1113.534501108855</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035065</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>569.7316393976197</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>280.3144693606591</v>
+        <v>548.6858504629124</v>
       </c>
       <c r="X10" t="n">
-        <v>280.3144693606591</v>
+        <v>548.6858504629124</v>
       </c>
       <c r="Y10" t="n">
-        <v>280.3144693606591</v>
+        <v>548.6858504629124</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5467179762944</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6105350483875</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>665.4938956360518</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>517.5808020536587</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>370.6908545557483</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578611</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1166.195182806534</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5595,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>696.7084350851671</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728314</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>398.6787020904383</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>251.7887545925279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>768.5380889459609</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>599.601906018054</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>599.601906018054</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101294</v>
+        <v>451.6888124356609</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817748</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919731</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>950.1865537762006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6306,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048556</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925198</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101267</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122163</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647259</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C31" t="n">
-        <v>631.564586536819</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244832</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420901</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441797</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235163</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579361</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373474</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336513</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438496</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949656</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="32">
@@ -6683,37 +6683,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.562808876162</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876162</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876162</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.48758222036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014474</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977513</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
         <v>382.4184417036842</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
         <v>489.9894131830887</v>
@@ -7558,13 +7558,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2420.562808876166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014477</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977516</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079499</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,19 +7640,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327661</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048592</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925235</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101303</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>149.89827541222</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>149.89827541222</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>149.89827541222</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7813,43 +7813,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704553</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806536</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630058</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069109</v>
       </c>
       <c r="K3" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415548</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.26288739959432</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538062</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>138.3837121690927</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434847</v>
+        <v>36.31458639917302</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610424</v>
       </c>
       <c r="G16" t="n">
-        <v>112.9792378643605</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>9.131767663158371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986258</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.85445046951585</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761188</v>
       </c>
       <c r="G25" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516668</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143904</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.8900140445886</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.23897475306453</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260599</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74.83129810813925</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.2691783702347</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>25.7450400779599</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>878944.2442820282</v>
+        <v>878944.2442820281</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846787</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830046</v>
@@ -26326,7 +26326,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
@@ -26335,22 +26335,22 @@
         <v>565002.6197830047</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="M2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580826</v>
+        <v>390680.0076580759</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606898</v>
+        <v>507909.2320606961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191139</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101858</v>
+        <v>95270.23779101687</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954681</v>
+        <v>132717.9756954698</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662828</v>
+        <v>136854.4547662846</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,34 +26430,34 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756639</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756639</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756639</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756612</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567927</v>
+        <v>92902.86757567874</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416949.8115770073</v>
+        <v>-416949.8115770078</v>
       </c>
       <c r="C6" t="n">
-        <v>263138.1690141858</v>
+        <v>263138.1690141857</v>
       </c>
       <c r="D6" t="n">
-        <v>-45708.09109504626</v>
+        <v>-45708.09109504079</v>
       </c>
       <c r="E6" t="n">
-        <v>-53366.3424583489</v>
+        <v>-53401.08038379082</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023407</v>
+        <v>454508.151676905</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.889602341</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="J6" t="n">
-        <v>385543.7351832271</v>
+        <v>385508.9972577909</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="L6" t="n">
-        <v>359272.6518113223</v>
+        <v>359237.9138858884</v>
       </c>
       <c r="M6" t="n">
-        <v>321824.9139068729</v>
+        <v>321790.1759814355</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023405</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769051</v>
       </c>
     </row>
   </sheetData>
@@ -26701,19 +26701,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627857</v>
+        <v>933.7024595627804</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856995</v>
+        <v>640.140690085693</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933075</v>
+        <v>319.647445793302</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778888</v>
+        <v>434.2730407788933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841933</v>
+        <v>376.4268100841868</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139489</v>
+        <v>532.5675980139554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841933</v>
+        <v>376.4268100841866</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139489</v>
+        <v>532.5675980139556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841933</v>
+        <v>376.4268100841868</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139489</v>
+        <v>532.5675980139554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>179.2257555034844</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776168</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>68.11956169855961</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>90.79419938521914</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>168.3354475788758</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>116.6540820673347</v>
+        <v>225.2910301688114</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>95.74153548729487</v>
+        <v>267.9509865514519</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.44723858393853</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052649</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,22 +27780,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.05694097045091</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.3356920382005</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>165.0507690075823</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.906699644465</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.77644916454139</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164515725</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>25.26138768987377</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>265.6876672912408</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.220922302743453e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.015490405478207e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.581082423143246e-12</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.062432900276878e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2.581082423143246e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30684,7 +30684,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885568</v>
+        <v>3.753577726885546</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546683</v>
+        <v>38.44132789546661</v>
       </c>
       <c r="I8" t="n">
-        <v>144.709805315756</v>
+        <v>144.7098053157552</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972543</v>
+        <v>318.5802175972524</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763204</v>
+        <v>477.4691627763177</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354948</v>
+        <v>592.3427171354914</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035996</v>
+        <v>659.0954050359921</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525097</v>
+        <v>669.7602577525058</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307912</v>
+        <v>632.4356192307877</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983037</v>
+        <v>539.7691690983006</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542141</v>
+        <v>405.3441667542119</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864758</v>
+        <v>235.7856768864744</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140497</v>
+        <v>85.53465245140448</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944158</v>
+        <v>16.43128649944149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508454</v>
+        <v>0.3002862181508437</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436935</v>
+        <v>2.008341139436924</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035146</v>
+        <v>19.39634732035135</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026292</v>
+        <v>69.14683309026252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079431</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502178</v>
+        <v>324.3030514502159</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571294</v>
+        <v>436.0654741571269</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617182</v>
+        <v>508.8678404617153</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015223</v>
+        <v>522.33605801522</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519098</v>
+        <v>477.835446451907</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947601</v>
+        <v>383.5050724947579</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.362984746371</v>
+        <v>256.3629847463695</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204793</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366411</v>
+        <v>37.30405581366389</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133961</v>
+        <v>8.095024154133913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419037</v>
+        <v>0.132127706541903</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752564</v>
+        <v>1.683725746752555</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840008</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415895</v>
+        <v>50.63422518415866</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954063</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772524</v>
+        <v>195.6183185772513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490131</v>
+        <v>250.3240987490117</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023133</v>
+        <v>263.9316641023118</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462358</v>
+        <v>257.6559590462343</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046262</v>
+        <v>237.9869810046248</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708737</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939807</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307436</v>
+        <v>75.70643221307394</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658786</v>
+        <v>29.34274778658769</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942773</v>
+        <v>7.194100917942731</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650362</v>
+        <v>0.09183958618650309</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>162.5000833330458</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>209.2370040367373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,22 +33971,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>359.7678776111906</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K3" t="n">
-        <v>101.5721424897439</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043501</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35027,13 +35027,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070568</v>
+        <v>137.5343130705662</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313399</v>
+        <v>257.3793117313372</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655076</v>
+        <v>356.5763021655042</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087233</v>
+        <v>428.7491718087194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559188</v>
+        <v>440.3471941559149</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091044</v>
+        <v>402.3374078091009</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430341</v>
+        <v>308.5361733430311</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797647</v>
+        <v>183.0384768797624</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234366</v>
+        <v>20.2001390723423</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816853</v>
+        <v>62.90656844127534</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884374</v>
+        <v>450.9268494884356</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772552</v>
+        <v>297.5110943772527</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396999</v>
+        <v>366.733806539697</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318897</v>
+        <v>640.140690085693</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074653</v>
+        <v>335.2392020074626</v>
       </c>
       <c r="P9" t="n">
-        <v>387.9143772495225</v>
+        <v>249.5306650804276</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603494</v>
+        <v>116.381210660348</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.32840335568762</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873351</v>
+        <v>25.68023017873283</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513696</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093293</v>
+        <v>277.9141240093278</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641539</v>
+        <v>303.5155410641524</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254644</v>
+        <v>301.7881314254629</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186659</v>
+        <v>262.5721089186645</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357672</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228627</v>
+        <v>54.82702814228544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94570355317166</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706048</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,13 +36674,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36689,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999009</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37619,22 +37619,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>217.6338436891722</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010463</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
